--- a/data/0. old data/0. raw/2016/companies/daiichi.xlsx
+++ b/data/0. old data/0. raw/2016/companies/daiichi.xlsx
@@ -3115,7 +3115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="274">
+  <cellStyleXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3158,6 +3158,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3451,7 +3455,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="274">
+  <cellStyles count="278">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3594,6 +3598,8 @@
     <cellStyle name="Besuchter Link" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -3715,6 +3721,8 @@
     <cellStyle name="Link" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4027,16 +4035,16 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3"/>
-    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="3"/>
     <col min="6" max="6" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -4095,13 +4103,13 @@
         <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="15"/>
@@ -4124,13 +4132,13 @@
         <v>302</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="15"/>
@@ -4155,13 +4163,13 @@
         <v>303</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="15"/>
@@ -4184,13 +4192,13 @@
         <v>304</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="15"/>
@@ -4213,13 +4221,13 @@
         <v>305</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="15"/>
@@ -4242,13 +4250,13 @@
         <v>306</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="15"/>
@@ -4271,13 +4279,13 @@
         <v>307</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="15"/>
@@ -4302,13 +4310,13 @@
         <v>308</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="15"/>
@@ -4331,13 +4339,13 @@
         <v>309</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
@@ -4360,13 +4368,13 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
@@ -4389,13 +4397,13 @@
         <v>311</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="15"/>
@@ -4420,13 +4428,13 @@
         <v>312</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="15"/>
@@ -4449,13 +4457,13 @@
         <v>313</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="15"/>
@@ -4478,13 +4486,13 @@
         <v>314</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="15"/>
@@ -4508,14 +4516,14 @@
       <c r="A16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="15"/>
@@ -4540,13 +4548,13 @@
         <v>316</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="15"/>
@@ -4569,13 +4577,13 @@
         <v>317</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="15"/>
@@ -4598,13 +4606,13 @@
         <v>318</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="15"/>
@@ -4629,13 +4637,13 @@
         <v>319</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="15"/>
@@ -4658,13 +4666,13 @@
         <v>320</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="15"/>
@@ -4687,13 +4695,13 @@
         <v>321</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="15"/>
@@ -4718,13 +4726,13 @@
         <v>322</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="15"/>
@@ -4751,13 +4759,13 @@
         <v>323</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="15"/>
@@ -4780,13 +4788,13 @@
         <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="15"/>
@@ -4809,13 +4817,13 @@
         <v>325</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="15"/>
@@ -4840,13 +4848,13 @@
         <v>326</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="15"/>
@@ -4869,13 +4877,13 @@
         <v>327</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="15"/>
@@ -4898,13 +4906,13 @@
         <v>328</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="15"/>
@@ -4927,13 +4935,13 @@
         <v>329</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="15"/>
@@ -4955,14 +4963,14 @@
       <c r="A31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="15"/>
@@ -4984,14 +4992,14 @@
       <c r="A32" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="15"/>
@@ -5014,13 +5022,13 @@
         <v>332</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="15"/>
@@ -5043,13 +5051,13 @@
         <v>333</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="15"/>
@@ -5072,13 +5080,13 @@
         <v>334</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="15"/>
@@ -5105,13 +5113,13 @@
         <v>335</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="15"/>
@@ -5136,13 +5144,13 @@
         <v>336</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="15"/>
@@ -5165,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="15"/>
@@ -5194,13 +5202,13 @@
         <v>223</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="15"/>
@@ -5222,14 +5230,14 @@
       <c r="A40" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="15"/>
@@ -5252,13 +5260,13 @@
         <v>339</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="15"/>
@@ -5281,13 +5289,13 @@
         <v>340</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="15"/>
@@ -5310,13 +5318,13 @@
         <v>341</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="15"/>
@@ -5339,13 +5347,13 @@
         <v>342</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="15"/>
@@ -5370,13 +5378,13 @@
         <v>343</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="15"/>
@@ -5400,14 +5408,14 @@
       <c r="A46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="15"/>
@@ -5432,13 +5440,13 @@
         <v>345</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="15"/>
@@ -5461,13 +5469,13 @@
         <v>346</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="15"/>
@@ -5490,13 +5498,13 @@
         <v>224</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="15"/>
@@ -5519,13 +5527,13 @@
         <v>347</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="15"/>
@@ -5548,13 +5556,13 @@
         <v>348</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="15"/>
@@ -5577,13 +5585,13 @@
         <v>349</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="15"/>
@@ -5605,14 +5613,14 @@
       <c r="A53" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="15"/>
@@ -5635,13 +5643,13 @@
         <v>351</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="15"/>
@@ -5664,13 +5672,13 @@
         <v>352</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="15"/>
@@ -5693,13 +5701,13 @@
         <v>353</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="15"/>
@@ -5722,13 +5730,13 @@
         <v>354</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="15"/>
@@ -5751,13 +5759,13 @@
         <v>355</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="15"/>
@@ -5780,13 +5788,13 @@
         <v>356</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="15"/>
@@ -5809,13 +5817,13 @@
         <v>357</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="15"/>
@@ -5838,13 +5846,13 @@
         <v>240</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="15"/>
@@ -5867,13 +5875,13 @@
         <v>358</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="15"/>
@@ -5896,13 +5904,13 @@
         <v>225</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="15"/>
@@ -5925,13 +5933,13 @@
         <v>226</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="15"/>
@@ -5954,13 +5962,13 @@
         <v>359</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="15"/>
@@ -5983,13 +5991,13 @@
         <v>360</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="15"/>
@@ -6016,13 +6024,13 @@
         <v>361</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="15"/>
@@ -6047,13 +6055,13 @@
         <v>362</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="15"/>
@@ -6076,13 +6084,13 @@
         <v>363</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="15"/>
@@ -6105,13 +6113,13 @@
         <v>364</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="15"/>
@@ -6134,13 +6142,13 @@
         <v>365</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="15"/>
@@ -6163,13 +6171,13 @@
         <v>366</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="15"/>
@@ -6194,13 +6202,13 @@
         <v>367</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="15"/>
@@ -6225,13 +6233,13 @@
         <v>368</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="15"/>
@@ -6253,14 +6261,14 @@
       <c r="A75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="15"/>
@@ -6282,14 +6290,14 @@
       <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="15"/>
@@ -6311,14 +6319,14 @@
       <c r="A77" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="12"/>
@@ -6341,13 +6349,13 @@
         <v>245</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="12"/>
@@ -6370,13 +6378,13 @@
         <v>247</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="12"/>
@@ -6399,13 +6407,13 @@
         <v>248</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="12"/>
@@ -6428,13 +6436,13 @@
         <v>249</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="12"/>
@@ -6457,13 +6465,13 @@
         <v>250</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="12"/>
@@ -6485,14 +6493,14 @@
       <c r="A83" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="12"/>
@@ -6515,13 +6523,13 @@
         <v>254</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="12"/>
@@ -6543,14 +6551,14 @@
       <c r="A85" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="12"/>
@@ -6573,13 +6581,13 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="12"/>
@@ -6598,13 +6606,13 @@
         <v>260</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="12"/>
@@ -6628,14 +6636,14 @@
       <c r="A88" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="12"/>
@@ -6657,14 +6665,14 @@
       <c r="A89" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="12"/>
@@ -6687,13 +6695,13 @@
         <v>263</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="12"/>
@@ -6716,13 +6724,13 @@
         <v>264</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="12"/>
@@ -6745,13 +6753,13 @@
         <v>265</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="12"/>
@@ -6773,14 +6781,14 @@
       <c r="A93" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="12"/>
@@ -6803,13 +6811,13 @@
         <v>267</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="12"/>
@@ -6831,14 +6839,14 @@
       <c r="A95" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="12"/>
@@ -6861,13 +6869,13 @@
         <v>270</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="12"/>
@@ -6890,13 +6898,13 @@
         <v>124</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="12"/>
@@ -6919,13 +6927,13 @@
         <v>126</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="12"/>
@@ -6948,13 +6956,13 @@
         <v>273</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="12"/>
@@ -6977,13 +6985,13 @@
         <v>128</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="12"/>
@@ -7005,14 +7013,14 @@
       <c r="A101" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="12"/>
@@ -7035,13 +7043,13 @@
         <v>206</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="12"/>
@@ -7064,13 +7072,13 @@
         <v>207</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="12"/>
@@ -7093,13 +7101,13 @@
         <v>275</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="12"/>
@@ -7122,13 +7130,13 @@
         <v>133</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="12"/>
@@ -7151,13 +7159,13 @@
         <v>276</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="12"/>
@@ -7180,13 +7188,13 @@
         <v>277</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="12"/>
@@ -7209,13 +7217,13 @@
         <v>137</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="12"/>
@@ -7238,13 +7246,13 @@
         <v>138</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="12"/>
@@ -7267,13 +7275,13 @@
         <v>141</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="12"/>
@@ -7296,13 +7304,13 @@
         <v>142</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="12"/>
@@ -7325,13 +7333,13 @@
         <v>144</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="12"/>
@@ -7354,13 +7362,13 @@
         <v>147</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="12"/>
@@ -7383,13 +7391,13 @@
         <v>281</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="12"/>
@@ -7414,13 +7422,13 @@
         <v>150</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="12"/>
@@ -7442,13 +7450,13 @@
       <c r="A116" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="C116" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="8"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
@@ -7470,13 +7478,13 @@
         <v>154</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="12"/>
@@ -7500,14 +7508,14 @@
       <c r="A118" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="12"/>
@@ -7531,14 +7539,14 @@
       <c r="A119" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="12"/>
@@ -7561,13 +7569,13 @@
         <v>158</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="12"/>
@@ -7590,13 +7598,13 @@
         <v>210</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="12"/>
@@ -7619,13 +7627,13 @@
         <v>285</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="12"/>
@@ -7648,13 +7656,13 @@
         <v>162</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="12"/>
@@ -7677,13 +7685,13 @@
         <v>209</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="12"/>
@@ -7706,13 +7714,13 @@
         <v>165</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="12"/>
@@ -7735,13 +7743,13 @@
         <v>288</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="12"/>
@@ -7763,13 +7771,13 @@
       <c r="A127" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="C127" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="2"/>
       <c r="F127" s="12"/>
       <c r="G127" s="13">
@@ -7791,13 +7799,13 @@
         <v>171</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="12"/>
@@ -7820,13 +7828,13 @@
         <v>290</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="12"/>
@@ -7849,13 +7857,13 @@
         <v>175</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="12"/>
@@ -7877,14 +7885,14 @@
       <c r="A131" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>292</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="12"/>
@@ -7907,13 +7915,13 @@
         <v>178</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="12"/>
@@ -7936,13 +7944,13 @@
         <v>293</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="12"/>
@@ -7965,13 +7973,13 @@
         <v>180</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="12"/>
@@ -7994,13 +8002,13 @@
         <v>182</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="12"/>
@@ -8023,13 +8031,13 @@
         <v>185</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="12"/>
@@ -8051,14 +8059,14 @@
       <c r="A137" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="12"/>
@@ -8081,13 +8089,13 @@
         <v>188</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="12"/>
@@ -8110,13 +8118,13 @@
         <v>190</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="12"/>
@@ -8139,13 +8147,13 @@
         <v>297</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="12"/>
@@ -8168,13 +8176,13 @@
         <v>192</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="13">
@@ -8201,13 +8209,13 @@
         <v>194</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="12"/>
@@ -8230,13 +8238,13 @@
         <v>299</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="12"/>
@@ -8259,13 +8267,13 @@
         <v>196</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="12"/>
@@ -8288,13 +8296,13 @@
         <v>301</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="12"/>
@@ -8317,13 +8325,13 @@
         <v>199</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="12"/>
